--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34400.2712666729</v>
+        <v>6811949.108155824</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34400.2712666729</v>
+        <v>6811949.108155824</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13502.62948497587</v>
+        <v>810157.7690985523</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13502.62948497587</v>
+        <v>810157.7690985523</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037108580.648739</v>
+        <v>43506331.80122872</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10285.35044657138</v>
+        <v>1153983.012248862</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18736.29973914699</v>
+        <v>2004062.514473362</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27187.09334563581</v>
+        <v>2854142.016697865</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35978.5403950031</v>
+        <v>3666443.464149519</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44900.72150138658</v>
+        <v>4488626.388101977</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53513.80866451862</v>
+        <v>5348647.142358349</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62076.93978728944</v>
+        <v>6198726.644582847</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70640.07091006031</v>
+        <v>7048806.146807346</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79349.59739722878</v>
+        <v>7867226.761061062</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88101.2364290368</v>
+        <v>8694027.771698056</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96852.87546084485</v>
+        <v>9520828.782335056</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105604.5144926529</v>
+        <v>10347629.79297206</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114356.1535244609</v>
+        <v>11174430.80360906</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123107.792556269</v>
+        <v>12001231.81424606</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131859.431588077</v>
+        <v>12828032.82488307</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
